--- a/Excel2_0/test/Test.xlsx
+++ b/Excel2_0/test/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Disciplinas\MEI\1Ano\1semestre\IM\Projeto\IM_Excel\Excel2_0\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Disciplinas\MEI\1Ano\1semestre\IM\Projeto\IM_Final\Excel2_0\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839BA493-AD69-4FA7-A42C-7C772C798B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE8948-0926-494D-BFAD-5227DF1336C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="6120" windowWidth="11712" windowHeight="6216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
     <t>recurso</t>
   </si>
@@ -364,11 +364,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -390,6 +388,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel2_0/test/Test.xlsx
+++ b/Excel2_0/test/Test.xlsx
@@ -5,39 +5,68 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Disciplinas\MEI\1Ano\1semestre\IM\Projeto\IM_Final\Excel2_0\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8eb40edb26f6eca/Universidade/Mestrado/1Ano/1Semestre/IM/IM_Final/Excel2_0/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE8948-0926-494D-BFAD-5227DF1336C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6ACE8948-0926-494D-BFAD-5227DF1336C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D512F2-E8D2-4298-ADC9-4056C09B71FA}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
-  <si>
-    <t>recurso</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>curso</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>1º Trab</t>
+  </si>
+  <si>
+    <t>2º Trab</t>
+  </si>
+  <si>
+    <t>3º Trab</t>
+  </si>
+  <si>
+    <t>Exame</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +88,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="45"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,10 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,33 +429,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" ht="57.75" x14ac:dyDescent="0.85">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>1</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>19.5</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>17.5</v>
+      </c>
+      <c r="K11">
+        <f>F11*25%+G11*20%+H11*20%+I11*35%</f>
+        <v>18.600000000000001</v>
       </c>
     </row>
   </sheetData>
